--- a/techniqo/data_new_ticker/CHOLAHLDNG.xlsx
+++ b/techniqo/data_new_ticker/CHOLAHLDNG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1391"/>
+  <dimension ref="A1:G1393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49071,6 +49071,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1392" t="n">
+        <v>432.7</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>444.9</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>420</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>431.95</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>37718</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>442.7</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>444</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>436.2</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>443.15</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>13306</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/CHOLAHLDNG.xlsx
+++ b/techniqo/data_new_ticker/CHOLAHLDNG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1393"/>
+  <dimension ref="A1:G1395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49121,6 +49121,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>444</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>445</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>433.85</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>442.15</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>14976</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>450</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>450</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>425.85</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>429.1</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>268157</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
